--- a/docs/odh/shr-core-ReasonCode-extension.xlsx
+++ b/docs/odh/shr-core-ReasonCode-extension.xlsx
@@ -137,8 +137,8 @@
     <t>ReasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t>1</t>
@@ -194,7 +194,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReasonCode-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
